--- a/farmServer/config/skill.xlsx
+++ b/farmServer/config/skill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Files\Farm\豆瓜配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>SkillID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,34 @@
   </si>
   <si>
     <t>生成1-3个垃圾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷菜I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从好友家已成熟但未收获的物品中随机获取1-3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捣乱I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到好友家捣乱，留下1-3坨粑粑，每坨降低20点装饰分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,7 +538,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>10001</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -529,6 +557,52 @@
       </c>
       <c r="G3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>7200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>7200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -541,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/farmServer/config/skill.xlsx
+++ b/farmServer/config/skill.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Files\Farm\豆瓜配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目空间\农场\farmServer\farmServer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>SkillID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,7 +131,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从好友家已成熟但未收获的物品中随机获取1-3个</t>
+    <t>捣乱I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻物II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷菜II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捣乱II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到2-3个想要寻找的物品，耗时1.5小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,26 +175,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捣乱I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到好友家捣乱，留下1-3坨粑粑，每坨降低20点装饰分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_500</t>
+    <t>找到1-2个想要寻找的物品，耗时2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从好友家已成熟但未收获的物品中随机获取1-3个,耗时2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到好友家捣乱，留下1坨粑粑，每坨降低10点装饰分数,耗时2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从好友家已成熟但未收获的物品中随机获取2-3个,耗时1.5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到好友家捣乱，留下2坨粑粑，每坨降低10点装饰分数,耗时1.5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捣乱III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到好友家捣乱，留下3坨粑粑，每坨降低10点装饰分数,耗时1小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_100</t>
+  </si>
+  <si>
+    <t>1_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -513,7 +576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -536,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -544,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -553,56 +616,171 @@
         <v>7200</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5400</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
         <v>2</v>
-      </c>
-      <c r="E4">
-        <v>7200</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
       </c>
       <c r="E5">
         <v>7200</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>7200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>5400</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>180</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -619,9 +797,9 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -644,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -690,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>18</v>
       </c>
@@ -701,7 +879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>19</v>
       </c>
@@ -709,7 +887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>20</v>
       </c>
